--- a/Dataset/Folds/Fold_2/Excel/96.xlsx
+++ b/Dataset/Folds/Fold_2/Excel/96.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4296" uniqueCount="587">
   <si>
     <t>Doi</t>
   </si>
@@ -1717,6 +1717,209 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,                           Jing%Wang%NULL%0,                           Wenbin%Li%NULL%1,                           Zhaoxian%Zhou%NULL%1,                           Siying%Liu%NULL%1,                           Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                            Zhiqiang%Zhou%NULL%0,                            Jianping%Zhang%NULL%0,                            Fengfeng%Zhu%NULL%0,                            Yongyan%Tang%NULL%0,                            Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,                            Hua%Peng%NULL%1,                            Lin%Wang%NULL%2,                            Yin%Zhao%NULL%1,                            Lingkong%Zeng%NULL%1,                            Hui%Gao%NULL%1,                            Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,                            Liangyu%Peng%NULL%2,                            Liangyu%Peng%NULL%0,                            Rabeea%Siddique%NULL%1,                            Ghulam%Nabi%NULL%1,                            NULL%Nawsherwan%NULL%1,                            Mengzhou%Xue%NULL%1,                            Jianbo%Liu%NULL%1,                            Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                            Lefei%Han%NULL%1,                            Min%Peng%2658706528@qq.com%1,                            Yuxia%Lv%NULL%1,                            Yin%Ouyang%NULL%1,                            Kui%Liu%NULL%0,                            Linli%Yue%NULL%1,                            Qiannan%Li%NULL%1,                            Guoqiang%Sun%NULL%2,                            Lin%Chen%NULL%0,                            Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,                            Wei%Li%NULL%0,                            Qingling%Kang%NULL%1,                            Zhi%Xiong%NULL%1,                            Shaoshuai%Wang%NULL%1,                            Xingguang%Lin%NULL%1,                            Yanyan%Liu%NULL%1,                            Juan%Xiao%NULL%1,                            Haiyi%Liu%NULL%1,                            Dongrui%Deng%NULL%1,                            Suhua%Chen%NULL%1,                            Wanjiang%Zeng%NULL%1,                            Ling%Feng%NULL%1,                            Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,                            Viviana%stampini%NULL%2,                            Viviana%stampini%NULL%0,                            Roberta%Amadori%NULL%2,                            Roberta%Amadori%NULL%0,                            Martina%Gerbino%NULL%2,                            Martina%Gerbino%NULL%0,                            Annalisa%Curatolo%NULL%2,                            Annalisa%Curatolo%NULL%0,                            Daniela%surico%NULL%2,                            Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,                            E.%Liao%NULL%2,                            E.%Liao%NULL%0,                            Dongmei%Cao%NULL%1,                            Ying%Gao%NULL%1,                            Guoqiang%Sun%sun821ch@126.com%0,                            Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,                            Jianhui%Wang%NULL%1,                            Yunbo%Mo%NULL%1,                            Wei%Duan%NULL%0,                            Guangjun%Xiang%NULL%1,                            Ming%Yi%NULL%1,                            Lei%Bao%NULL%1,                            Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                            Caitlin%Baptiste%NULL%1,                            Cynthia%Gyamfi-Bannerman%NULL%1,                            Russell%Miller%NULL%1,                            Rebecca%Martinez%NULL%1,                            Kyra%Bernstein%NULL%1,                            Laurence%Ring%NULL%1,                            Ruth%Landau%NULL%1,                            Stephanie%Purisch%NULL%1,                            Alexander M.%Friedman%NULL%1,                            Karin%Fuchs%NULL%1,                            Desmond%Sutton%NULL%1,                            Maria%Andrikopoulou%NULL%1,                            Devon%Rupley%NULL%1,                            Jean-Ju%Sheen%NULL%1,                            Janice%Aubey%NULL%1,                            Noelia%Zork%NULL%1,                            Leslie%Moroz%NULL%1,                            Mirella%Mourad%NULL%1,                            Ronald%Wapner%NULL%1,                            Lynn L.%Simpson%NULL%1,                            Mary E.%D’Alton%NULL%1,                            Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,                            Hong%Wei%NULL%2,                            Hong%Wei%NULL%0,                            Zhihong%Zhang%NULL%1,                            Jing%Chang%NULL%1,                            Xiaopeng%Ma%NULL%1,                            Xiang%Gao%NULL%1,                            Qiang%Chen%qiangchen2015@sina.com%1,                            Qiumei%Pang%pqm19650930@sina.com%2,                            Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,                            Yousef%Al Ahwel%NULL%1,                            Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                            Jing%Wang%NULL%0,                            Wenbin%Li%NULL%1,                            Zhaoxian%Zhou%NULL%1,                            Siying%Liu%NULL%1,                            Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                             Zhiqiang%Zhou%NULL%0,                             Jianping%Zhang%NULL%0,                             Fengfeng%Zhu%NULL%0,                             Yongyan%Tang%NULL%0,                             Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0,                             Hua%Peng%NULL%1,                             Lin%Wang%NULL%2,                             Yin%Zhao%NULL%1,                             Lingkong%Zeng%NULL%1,                             Hui%Gao%NULL%1,                             Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%1,                             Liangyu%Peng%NULL%2,                             Liangyu%Peng%NULL%0,                             Rabeea%Siddique%NULL%1,                             Ghulam%Nabi%NULL%1,                             NULL%Nawsherwan%NULL%1,                             Mengzhou%Xue%NULL%1,                             Jianbo%Liu%NULL%1,                             Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                             Lefei%Han%NULL%1,                             Min%Peng%2658706528@qq.com%1,                             Yuxia%Lv%NULL%1,                             Yin%Ouyang%NULL%1,                             Kui%Liu%NULL%0,                             Linli%Yue%NULL%1,                             Qiannan%Li%NULL%1,                             Guoqiang%Sun%NULL%2,                             Lin%Chen%NULL%0,                             Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%1,                             Wei%Li%NULL%0,                             Qingling%Kang%NULL%1,                             Zhi%Xiong%NULL%1,                             Shaoshuai%Wang%NULL%1,                             Xingguang%Lin%NULL%1,                             Yanyan%Liu%NULL%1,                             Juan%Xiao%NULL%1,                             Haiyi%Liu%NULL%1,                             Dongrui%Deng%NULL%1,                             Suhua%Chen%NULL%1,                             Wanjiang%Zeng%NULL%1,                             Ling%Feng%NULL%1,                             Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%1,                             Viviana%stampini%NULL%2,                             Viviana%stampini%NULL%0,                             Roberta%Amadori%NULL%2,                             Roberta%Amadori%NULL%0,                             Martina%Gerbino%NULL%2,                             Martina%Gerbino%NULL%0,                             Annalisa%Curatolo%NULL%2,                             Annalisa%Curatolo%NULL%0,                             Daniela%surico%NULL%2,                             Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%1,                             E.%Liao%NULL%2,                             E.%Liao%NULL%0,                             Dongmei%Cao%NULL%1,                             Ying%Gao%NULL%1,                             Guoqiang%Sun%sun821ch@126.com%0,                             Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0,                             Jianhui%Wang%NULL%1,                             Yunbo%Mo%NULL%1,                             Wei%Duan%NULL%0,                             Guangjun%Xiang%NULL%1,                             Ming%Yi%NULL%1,                             Lei%Bao%NULL%1,                             Yuan%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                             Caitlin%Baptiste%NULL%1,                             Cynthia%Gyamfi-Bannerman%NULL%1,                             Russell%Miller%NULL%1,                             Rebecca%Martinez%NULL%1,                             Kyra%Bernstein%NULL%1,                             Laurence%Ring%NULL%1,                             Ruth%Landau%NULL%1,                             Stephanie%Purisch%NULL%1,                             Alexander M.%Friedman%NULL%1,                             Karin%Fuchs%NULL%1,                             Desmond%Sutton%NULL%1,                             Maria%Andrikopoulou%NULL%1,                             Devon%Rupley%NULL%1,                             Jean-Ju%Sheen%NULL%1,                             Janice%Aubey%NULL%1,                             Noelia%Zork%NULL%1,                             Leslie%Moroz%NULL%1,                             Mirella%Mourad%NULL%1,                             Ronald%Wapner%NULL%1,                             Lynn L.%Simpson%NULL%1,                             Mary E.%D’Alton%NULL%1,                             Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0,                             Hong%Wei%NULL%2,                             Hong%Wei%NULL%0,                             Zhihong%Zhang%NULL%1,                             Jing%Chang%NULL%1,                             Xiaopeng%Ma%NULL%1,                             Xiang%Gao%NULL%1,                             Qiang%Chen%qiangchen2015@sina.com%1,                             Qiumei%Pang%pqm19650930@sina.com%2,                             Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%0,                             Yousef%Al Ahwel%NULL%1,                             Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                             Jing%Wang%NULL%0,                             Wenbin%Li%NULL%1,                             Zhaoxian%Zhou%NULL%1,                             Siying%Liu%NULL%1,                             Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0, Zhiqiang%Zhou%NULL%0, Jianping%Zhang%NULL%0, Fengfeng%Zhu%NULL%0, Yongyan%Tang%NULL%0, Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A novel viral respiratory disease caused by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2), is responsible for an epidemic of the coronavirus disease 2019 (COVID-19) in cases in China and worldwide.
+ Four full-term, singleton infants were born to pregnant women who tested positive for COVID-19 in the city of Wuhan, the capital of Hubei province, China, where the disease was first identified.
+ Of the three infants, for who consent to be diagnostically tested was provided, none tested positive for the virus.
+ None of the infants developed serious clinical symptoms such as fever, cough, diarrhea, or abnormal radiologic or hematologic evidence, and all four infants were alive at the time of hospital discharge.
+ Two infants had rashes of unknown etiology at birth, and one had facial ulcerations.
+ One infant had tachypnea and was supported by non-invasive mechanical ventilation for 3 days.
+ One had rashes at birth but was discharged without parental consent for a diagnostic test.
+ This case report describes the clinical course of four live born infants, born to pregnant women with the COVID-19 infection.
+</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0, Hua%Peng%NULL%0, Lin%Wang%NULL%0, Yin%Zhao%NULL%0, Lingkong%Zeng%NULL%0, Hui%Gao%NULL%0, Yalan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
+  </si>
+  <si>
+    <t>[Suliman%Khan%NULL%0, Liangyu%Peng%NULL%2, Liangyu%Peng%NULL%0, Rabeea%Siddique%NULL%1, Ghulam%Nabi%NULL%1, NULL%Nawsherwan%NULL%0, Mengzhou%Xue%NULL%1, Jianbo%Liu%NULL%1, Guang%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>Cambridge University Press</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0, Lefei%Han%NULL%0, Min%Peng%2658706528@qq.com%0, Yuxia%Lv%NULL%0, Yin%Ouyang%NULL%0, Kui%Liu%NULL%0, Linli%Yue%NULL%0, Qiannan%Li%NULL%0, Guoqiang%Sun%NULL%0, Lin%Chen%NULL%0, Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Nan%Yu%NULL%0, Wei%Li%NULL%0, Qingling%Kang%NULL%1, Zhi%Xiong%NULL%1, Shaoshuai%Wang%NULL%1, Xingguang%Lin%NULL%1, Yanyan%Liu%NULL%1, Juan%Xiao%NULL%1, Haiyi%Liu%NULL%1, Dongrui%Deng%NULL%1, Suhua%Chen%NULL%1, Wanjiang%Zeng%NULL%1, Ling%Feng%NULL%0, Jianli%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Nicoletta%Vendola%NULL%0, Viviana%stampini%NULL%2, Viviana%stampini%NULL%0, Roberta%Amadori%NULL%2, Roberta%Amadori%NULL%0, Martina%Gerbino%NULL%2, Martina%Gerbino%NULL%0, Annalisa%Curatolo%NULL%2, Annalisa%Curatolo%NULL%0, Daniela%surico%NULL%2, Daniela%surico%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The aim is to evaluate pregnant women infected with coronavirus disease 2019 (COVID‐19) and provide help for clinical prevention and treatment.
+ All five cases of pregnant women confirmed COVID‐19 were collected among patients who admitted to the Maternal and Child Hospital of Hubei Province between January 20 and February 10, 2020. All patients, aging from 25 to 31 years old, had the gestational week from 38th weeks to 41st weeks.
+ All pregnant women did not have an antepartum fever but developed a low‐grade fever (37.5℃‐38.5℃) within 24 hours after delivery.
+ All patients had normal liver and renal function, two patients had elevated plasma levels of the myocardial enzyme.
+ Unusual chest imaging manifestations, featured with ground‐grass opacity, were frequently observed in bilateral (three cases) or unilateral lobe (two cases) by computed tomography (CT) scan.
+ All labors smoothly processed, the Apgar scores were 10 points 1 and 5 minutes after delivery, no complications were observed in the newborn.
+ Pregnancy and perinatal outcomes of patients with COVID‐19 should receive more attention.
+ It is probable that pregnant women diagnosed with COVID‐19 have no fever before delivery.
+ Their primary initial manifestations were merely low‐grade postpartum fever or mild respiratory symptoms.
+ Therefore, the protective measures are necessary on admission; the instant CT scan and real‐time reverse‐transcriptase polymerase‐chain‐reaction assay should be helpful in early diagnosis and avoid cross‐infection on the occasion that patients have fever and other respiratory signs.
+</t>
+  </si>
+  <si>
+    <t>[Siyu%Chen%NULL%0, E.%Liao%NULL%2, E.%Liao%NULL%0, Dongmei%Cao%NULL%1, Ying%Gao%NULL%0, Guoqiang%Sun%sun821ch@126.com%0, Yong%Shao%cqshaoyong@163.com%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As the 2019 novel coronavirus disease (COVID-19) rapidly spread across China and to more than 70 countries, an increasing number of pregnant women were affected.
+ The vertical transmission potential of severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) is of great concern to the obstetrics, neonatologists, and public health agencies.
+ Though some studies indicated the risk of vertical transmission is low, few cases have been reported with comprehensive serial tests from multiple specimens.
+ In this case, a female preterm infant was born to a mother with confirmed COVID-19. She presented with mild respiratory distress and received general management and a short period of nasal continuous positive airway pressure support.
+ During her stay at the hospital, a series of SARS-CoV-2 nucleic test from her throat and anal swab, serum, bronchoalveolar lavage fluid, and urine were negative.
+ The nucleic acid test from the mother's amniotic fluid, vaginal secretions, cord blood, placenta, serum, anal swab, and breast milk were also negative.
+ The most comprehensively tested case reported to date confirmed that the vertical transmission of COVID is unlikely, but still, more evidence is needed.
+</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0, Jianhui%Wang%NULL%0, Yunbo%Mo%NULL%0, Wei%Duan%NULL%0, Guangjun%Xiang%NULL%0, Ming%Yi%NULL%0, Lei%Bao%NULL%0, Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>The Authors. Published by Elsevier Ltd on behalf of King Saud Bin Abdulaziz University for Health Sciences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novel coronavirus disease 2019 is rapidly spreading throughout the New York metropolitan area since its first reported case on March 1, 2020. The state is now the epicenter of coronavirus disease 2019 outbreak in the United States, with 84,735 cases reported as of April 2, 2020. We previously presented an early case series with 7 coronavirus disease 2019–positive pregnant patients, 2 of whom were diagnosed with coronavirus disease 2019 after an initial asymptomatic presentation.
+ We now describe a series of 43 test-positive cases of coronavirus disease 2019 presenting to an affiliated pair of New York City hospitals for more than 2 weeks, from March 13, 2020, to March 27, 2020. A total of 14 patients (32.6%) presented without any coronavirus disease 2019–associated viral symptoms and were identified after they developed symptoms during admission or after the implementation of universal testing for all obstetric admissions on March 22. Among them, 10 patients (71.4%) developed symptoms of coronavirus disease 2019 over the course of their delivery admission or early after postpartum discharge.
+ Of the other 29 patients (67.4%) who presented with symptomatic coronavirus disease 2019, 3 women ultimately required antenatal admission for viral symptoms, and another patient re-presented with worsening respiratory status requiring oxygen supplementation 6 days postpartum after a successful labor induction.
+ There were no confirmed cases of coronavirus disease 2019 detected in neonates upon initial testing on the first day of life.
+ Based on coronavirus disease 2019 disease severity characteristics by Wu and McGoogan, 37 women (86%) exhibited mild disease, 4 (9.3%) severe disease, and 2 (4.7%) critical disease; these percentages are similar to those described in nonpregnant adults with coronavirus disease 2019 (about 80% mild, 15% severe, and 5% critical disease).
+</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%NULL%0, Caitlin%Baptiste%NULL%0, Cynthia%Gyamfi-Bannerman%NULL%0, Russell%Miller%NULL%0, Rebecca%Martinez%NULL%0, Kyra%Bernstein%NULL%0, Laurence%Ring%NULL%0, Ruth%Landau%NULL%0, Stephanie%Purisch%NULL%0, Alexander M.%Friedman%NULL%0, Karin%Fuchs%NULL%0, Desmond%Sutton%NULL%0, Maria%Andrikopoulou%NULL%0, Devon%Rupley%NULL%0, Jean-Ju%Sheen%NULL%0, Janice%Aubey%NULL%0, Noelia%Zork%NULL%0, Leslie%Moroz%NULL%0, Mirella%Mourad%NULL%0, Ronald%Wapner%NULL%0, Lynn L.%Simpson%NULL%0, Mary E.%D’Alton%NULL%0, Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The outbreak of the infection of 2019 novel coronavirus disease (COVID­‐19) has become a challenging public health threat worldwide.
+ Limited data are available for pregnant women with COVID‐19 pneumonia.
+ We report a case of a convalescing pregnant woman diagnosed with COVID‐19 infection 37 days before delivery in the third trimester.
+ A live birth without severe acute respiratory syndrome coronavirus 2 (SARS‐CoV‐2) infection was performed successfully via the vagina.
+ The findings from our case indicate that there is no intrauterine transmission in this woman who developed COVID‐19 pneumonia in late pregnancy.
+</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0, Hong%Wei%NULL%0, Hong%Wei%NULL%0, Zhihong%Zhang%NULL%0, Jing%Chang%NULL%0, Xiaopeng%Ma%NULL%0, Xiang%Gao%NULL%0, Qiang%Chen%qiangchen2015@sina.com%0, Qiumei%Pang%pqm19650930@sina.com%0, Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the emergence of a novel coronavirus (severe acute respiratory syndrome coronavirus 2) in Wuhan, China, at the end of December 2019, coronavirus disease 2019 has been associated with severe morbidity and mortality and has left world governments, healthcare systems, and providers caring for vulnerable populations, such as pregnant women, wrestling with the optimal management strategy.
+ Unique physiologic and ethical considerations negate a one-size-fits-all approach when caring for critically ill pregnant women with coronavirus disease 2019, and few resources exist to guide the multidisciplinary team through decisions regarding optimal maternal-fetal surveillance, intensive care procedures, and delivery timing.
+ We present a case of rapid clinical decompensation and development of severe acute respiratory distress syndrome in a woman at 31 weeks’ gestation to highlight these unique considerations and present an algorithmic approach to the diagnosis and management of the disease.
+</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%NULL%0, Yousef%Al Ahwel%NULL%0, Anju%Suhag%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The aim of this study was to investigate the clinical characteristics of neonates born to SARS-CoV-2 infected mothers and increase the current knowledge on the perinatal consequences of COVID-19. Nineteen neonates were admitted to Tongji Hospital from January 31 to February 29, 2020. Their mothers were clinically diagnosed or laboratory-confirmed with COVID-19. We prospectively collected and analyzed data of mothers and infants.
+ There are 19 neonates included in the research.
+ Among them, 10 mothers were confirmed COVID-19 by positive SARS-CoV-2 RT-PCR in throat swab, and 9 mothers were clinically diagnosed with COVID-19. Delivery occurred in an isolation room and neonates were immediately separated from the mothers and isolated for at least 14 days.
+ No fetal distress was found.
+ Gestational age of the neonates was 38.6 ± 1.5 weeks, and average birth weight was 3293 ± 425 g.
+ SARS-CoV-2 RT-PCR in throat swab, urine, and feces of all neonates were negative.
+ SARS-CoV-2 RT-PCR in breast milk and amniotic fluid was negative too.
+ None of the neonates developed clinical, radiologic, hematologic, or biochemical evidence of COVID-19. No vertical transmission of SARS-CoV-2 and no perinatal complications in the third trimester were found in our study.
+ The delivery should occur in isolation and neonates should be separated from the infected mothers and care givers.
+</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0, Jing%Wang%NULL%0, Wenbin%Li%NULL%0, Zhaoxian%Zhou%NULL%0, Siying%Liu%NULL%0, Zhihui%Rong%rongzhihui53@163.com%0]</t>
+  </si>
+  <si>
+    <t>Higher Education Press</t>
   </si>
 </sst>
 </file>
@@ -2077,28 +2280,28 @@
         <v>43862.0</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>299</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>431</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
         <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>432</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -2115,7 +2318,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>521</v>
+        <v>559</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -2127,10 +2330,10 @@
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4">
@@ -2144,10 +2347,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>561</v>
       </c>
       <c r="E4" t="s">
-        <v>522</v>
+        <v>562</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -2159,10 +2362,10 @@
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5">
@@ -2179,7 +2382,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>523</v>
+        <v>564</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -2191,10 +2394,10 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6">
@@ -2211,7 +2414,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>524</v>
+        <v>566</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -2223,10 +2426,10 @@
         <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7">
@@ -2243,7 +2446,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>525</v>
+        <v>567</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -2255,10 +2458,10 @@
         <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>397</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8">
@@ -2269,28 +2472,28 @@
         <v>44013.0</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>305</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>431</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
         <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>438</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -2307,7 +2510,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>526</v>
+        <v>569</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -2319,10 +2522,10 @@
         <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>397</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10">
@@ -2333,28 +2536,28 @@
         <v>43963.0</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>307</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>440</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>438</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -2368,10 +2571,10 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>571</v>
       </c>
       <c r="E11" t="s">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -2383,10 +2586,10 @@
         <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12">
@@ -2397,25 +2600,25 @@
         <v>43984.0</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>528</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
         <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
         <v>44</v>
@@ -2429,25 +2632,25 @@
         <v>43983.0</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>529</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
         <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
         <v>44</v>
@@ -2464,10 +2667,10 @@
         <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>574</v>
       </c>
       <c r="E14" t="s">
-        <v>530</v>
+        <v>575</v>
       </c>
       <c r="F14" t="s">
         <v>67</v>
@@ -2479,10 +2682,10 @@
         <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>397</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15">
@@ -2496,10 +2699,10 @@
         <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>577</v>
       </c>
       <c r="E15" t="s">
-        <v>531</v>
+        <v>578</v>
       </c>
       <c r="F15" t="s">
         <v>72</v>
@@ -2511,10 +2714,10 @@
         <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>397</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16">
@@ -2528,10 +2731,10 @@
         <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>580</v>
       </c>
       <c r="E16" t="s">
-        <v>532</v>
+        <v>581</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
@@ -2543,10 +2746,10 @@
         <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17">
@@ -2557,28 +2760,28 @@
         <v>43935.0</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>314</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
         <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>448</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -2592,10 +2795,10 @@
         <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>582</v>
       </c>
       <c r="E18" t="s">
-        <v>533</v>
+        <v>583</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
@@ -2607,10 +2810,10 @@
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>397</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19">
@@ -2624,10 +2827,10 @@
         <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>584</v>
       </c>
       <c r="E19" t="s">
-        <v>534</v>
+        <v>585</v>
       </c>
       <c r="F19" t="s">
         <v>86</v>
@@ -2639,10 +2842,10 @@
         <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>410</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
